--- a/Waxing_Ver_02_Documents/91_Project_Rules/SQL_Rules.xlsx
+++ b/Waxing_Ver_02_Documents/91_Project_Rules/SQL_Rules.xlsx
@@ -28,19 +28,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Select</t>
+    <t>1. Use CRUD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Update</t>
+    <t>CRUD : lower</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Insert</t>
+    <t>Table name : Upper</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Delete</t>
+    <t>Column name : Upper</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +156,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,9 +196,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -229,9 +226,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -244,9 +238,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -258,6 +249,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -531,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,11 +546,9 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AN14"/>
+  <dimension ref="B1:AU23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -559,32 +560,32 @@
     <col min="9" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:47" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="17"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
@@ -605,16 +606,16 @@
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="16"/>
-    </row>
-    <row r="3" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM2" s="15"/>
+    </row>
+    <row r="3" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -623,7 +624,7 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="19"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -645,16 +646,16 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="C4" s="25"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -684,291 +685,859 @@
       <c r="AJ4" s="12"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="12"/>
-      <c r="AM4" s="16"/>
-    </row>
-    <row r="5" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
+      <c r="AM4" s="15"/>
+    </row>
+    <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
       <c r="AM5" s="16"/>
-    </row>
-    <row r="6" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+    </row>
+    <row r="6" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="28"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-    </row>
-    <row r="8" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>2</v>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+    </row>
+    <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>4</v>
       </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+    </row>
+    <row r="8" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-    </row>
-    <row r="9" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+    </row>
+    <row r="9" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-    </row>
-    <row r="10" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-    </row>
-    <row r="11" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+    </row>
+    <row r="10" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+    </row>
+    <row r="11" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-    </row>
-    <row r="12" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+    </row>
+    <row r="12" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+    </row>
+    <row r="13" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+    </row>
+    <row r="14" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+    </row>
+    <row r="15" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+    </row>
+    <row r="16" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+    </row>
+    <row r="17" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+    </row>
+    <row r="18" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+    </row>
+    <row r="19" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+    </row>
+    <row r="20" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+    </row>
+    <row r="21" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+    </row>
+    <row r="22" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+    </row>
+    <row r="23" spans="3:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
